--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -2187,7 +2187,7 @@
         <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>124</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -386,7 +386,16 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,8 +463,8 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2190,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>106</v>
@@ -2210,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>108</v>
@@ -2230,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>110</v>
@@ -2244,16 +2253,16 @@
         <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2264,16 +2273,16 @@
         <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2284,16 +2293,16 @@
         <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2304,18 +2313,98 @@
         <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,6 +472,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,45 +494,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -547,1865 +563,2147 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.17</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -89,19 +89,19 @@
     <t>Dati generali</t>
   </si>
   <si>
-    <t>Data richiesta trascrizione</t>
+    <t>Data provvedimento Sindaco</t>
   </si>
   <si>
     <t>evento.trascrizioneCittadinanza</t>
   </si>
   <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
+    <t>dataProvvedimentoSindaco</t>
+  </si>
+  <si>
+    <t>Riassunto esito di accertamento</t>
+  </si>
+  <si>
+    <t>esitoAccertamento</t>
   </si>
   <si>
     <t>Minore</t>
@@ -470,9 +470,9 @@
     <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1610,7 +1610,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>77</v>
@@ -2139,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>103</v>
@@ -2346,7 +2346,7 @@
         <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di perdita di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.17</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di perdita di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.17</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -564,2146 +567,2146 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -191,6 +191,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -390,6 +396,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -463,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -992,7 +1001,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1084,7 +1093,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1193,19 +1202,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1216,19 +1225,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1239,19 +1248,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1262,19 +1271,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1285,19 +1294,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1308,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1331,19 +1340,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1354,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1377,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1400,19 +1409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1469,7 +1478,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>87</v>
@@ -1478,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1492,7 +1501,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>88</v>
@@ -1501,10 +1510,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1561,7 +1570,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>91</v>
@@ -1570,10 +1579,10 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1584,7 +1593,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>92</v>
@@ -1593,10 +1602,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,7 +1616,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1616,10 +1625,10 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>83</v>
@@ -1915,10 +1924,10 @@
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1929,7 +1938,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>84</v>
@@ -1938,10 +1947,10 @@
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2688,24 +2697,116 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -2542,7 +2542,7 @@
         <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>110</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,6 +251,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -318,6 +342,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -472,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,7 +512,7 @@
     <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1225,19 +1255,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1248,19 +1278,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1271,19 +1301,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1294,19 +1324,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1317,19 +1347,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1340,19 +1370,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1363,19 +1393,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1386,19 +1416,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1439,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1462,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1485,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1508,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,7 +2106,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2085,10 +2115,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,7 +2129,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2108,10 +2138,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,7 +2152,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
@@ -2131,10 +2161,10 @@
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,7 +2175,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>92</v>
@@ -2154,10 +2184,10 @@
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,7 +2198,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>93</v>
@@ -2177,10 +2207,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,7 +2221,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>94</v>
@@ -2200,10 +2230,10 @@
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2520,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2589,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,7 +2796,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>130</v>
@@ -2775,7 +2805,7 @@
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>131</v>
@@ -2789,7 +2819,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
@@ -2798,7 +2828,7 @@
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>133</v>
@@ -2807,6 +2837,328 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -299,10 +305,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -824,7 +827,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -870,13 +873,13 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -890,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -939,7 +942,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -1054,7 +1057,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1146,7 +1149,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>34</v>
@@ -1347,19 +1350,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1373,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1396,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1419,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1442,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1465,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1488,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1511,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
@@ -1540,10 +1543,10 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>94</v>
@@ -1563,10 +1566,10 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1580,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1603,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1626,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2178,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2431,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2477,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2523,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2546,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2615,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2638,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,10 +2661,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
@@ -2670,7 +2673,7 @@
         <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2684,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2707,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2730,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2753,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2776,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2822,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2845,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2868,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2891,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2914,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2937,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2960,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2983,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3006,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3029,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3052,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3075,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3098,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3121,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,24 +3144,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
@@ -377,64 +383,67 @@
     <t>Data formazione documento</t>
   </si>
   <si>
+    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
     <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -505,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,7 +523,7 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
@@ -1126,7 +1135,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1149,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>34</v>
@@ -1373,19 +1382,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1405,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1428,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1451,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1474,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1497,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1520,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1543,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1566,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1589,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,7 +1750,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>100</v>
@@ -1750,10 +1759,10 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,7 +1773,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>101</v>
@@ -1773,10 +1782,10 @@
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,7 +1796,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1796,10 +1805,10 @@
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,7 +1819,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -1819,10 +1828,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,7 +1842,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>104</v>
@@ -1842,10 +1851,10 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2270,7 +2279,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>95</v>
@@ -2279,10 +2288,10 @@
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,7 +2302,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>96</v>
@@ -2302,10 +2311,10 @@
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2408,7 +2417,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>99</v>
@@ -2417,10 +2426,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,24 +3222,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1730,7 +1736,7 @@
         <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
@@ -1739,7 +1745,7 @@
         <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -1762,7 +1768,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,7 +1782,7 @@
         <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -1785,7 +1791,7 @@
         <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,7 +1805,7 @@
         <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -1808,7 +1814,7 @@
         <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,7 +1828,7 @@
         <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
@@ -1831,7 +1837,7 @@
         <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,7 +1851,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
@@ -1854,7 +1860,7 @@
         <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,7 +1874,7 @@
         <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
@@ -1877,7 +1883,7 @@
         <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,7 +1897,7 @@
         <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
@@ -1900,7 +1906,7 @@
         <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,16 +1920,16 @@
         <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1983,16 +1989,16 @@
         <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,7 +2012,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
@@ -2015,7 +2021,7 @@
         <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,7 +2035,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
@@ -2038,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,7 +2058,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
@@ -2061,7 +2067,7 @@
         <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,7 +2081,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -2084,7 +2090,7 @@
         <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,10 +2110,10 @@
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,7 +2469,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>100</v>
@@ -2472,10 +2478,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>102</v>
@@ -2518,10 +2524,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,7 +2538,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>103</v>
@@ -2541,10 +2547,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,7 +2561,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>104</v>
@@ -2564,10 +2570,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>105</v>
@@ -2587,10 +2593,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>106</v>
@@ -2610,10 +2616,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,24 +3297,70 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,81 @@
   </si>
   <si>
     <t>evento.padre.recapito</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>DPR Revoca</t>
@@ -520,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
@@ -2889,7 +2964,7 @@
         <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>125</v>
@@ -2901,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
@@ -2909,22 +2984,22 @@
         <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
@@ -2932,22 +3007,22 @@
         <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
@@ -2955,22 +3030,22 @@
         <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
@@ -2978,22 +3053,22 @@
         <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
@@ -3001,7 +3076,7 @@
         <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
@@ -3010,13 +3085,13 @@
         <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
@@ -3039,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
@@ -3056,13 +3131,13 @@
         <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
@@ -3070,7 +3145,7 @@
         <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
@@ -3079,13 +3154,13 @@
         <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
@@ -3093,7 +3168,7 @@
         <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
@@ -3108,70 +3183,70 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3257,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3280,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,24 +3418,300 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -595,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1486,19 +1492,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1515,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1532,19 +1538,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1653,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>111</v>
@@ -2047,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>112</v>
@@ -2061,7 +2067,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>113</v>
@@ -2070,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>114</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,7 +2205,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>117</v>
@@ -2208,10 +2214,10 @@
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,7 +2780,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>111</v>
@@ -2783,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>112</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>113</v>
@@ -2806,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>114</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2941,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>117</v>
@@ -2944,10 +2950,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,53 +2964,53 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>130</v>
@@ -3013,7 +3019,7 @@
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>131</v>
@@ -3022,12 +3028,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>132</v>
@@ -3036,7 +3042,7 @@
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>133</v>
@@ -3045,12 +3051,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>134</v>
@@ -3059,7 +3065,7 @@
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>135</v>
@@ -3068,12 +3074,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>136</v>
@@ -3082,44 +3088,44 @@
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>139</v>
@@ -3128,44 +3134,44 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3174,7 +3180,7 @@
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3183,12 +3189,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
@@ -3197,7 +3203,7 @@
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>145</v>
@@ -3206,12 +3212,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3220,7 +3226,7 @@
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>147</v>
@@ -3229,44 +3235,44 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>153</v>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>154</v>
@@ -3289,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>155</v>
@@ -3303,7 +3309,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>156</v>
@@ -3312,7 +3318,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>157</v>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>158</v>
@@ -3335,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>159</v>
@@ -3349,16 +3355,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>161</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>162</v>
@@ -3381,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>163</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>164</v>
@@ -3404,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>165</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>166</v>
@@ -3427,7 +3433,7 @@
         <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>167</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3487,16 +3493,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>153</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>154</v>
@@ -3519,7 +3525,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>155</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>156</v>
@@ -3542,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>157</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>158</v>
@@ -3565,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>159</v>
@@ -3579,16 +3585,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>161</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>162</v>
@@ -3611,7 +3617,7 @@
         <v>33</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>163</v>
@@ -3625,7 +3631,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>164</v>
@@ -3634,7 +3640,7 @@
         <v>33</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>165</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>166</v>
@@ -3657,7 +3663,7 @@
         <v>33</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>167</v>
@@ -3671,19 +3677,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>173</v>
@@ -3703,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>174</v>
@@ -3712,6 +3718,29 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,12 +285,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -601,14 +595,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1492,19 +1486,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1509,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1532,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1555,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1578,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1601,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1624,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1647,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1670,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,7 +2038,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>111</v>
@@ -2053,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>112</v>
@@ -2067,7 +2061,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>113</v>
@@ -2076,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>114</v>
@@ -2090,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,7 +2199,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>117</v>
@@ -2214,10 +2208,10 @@
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,7 +2774,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>111</v>
@@ -2789,7 +2783,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>112</v>
@@ -2803,7 +2797,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>113</v>
@@ -2812,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>114</v>
@@ -2826,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,7 +2935,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>117</v>
@@ -2950,10 +2944,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,53 +2958,53 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>130</v>
@@ -3019,7 +3013,7 @@
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>131</v>
@@ -3028,12 +3022,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>132</v>
@@ -3042,7 +3036,7 @@
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>133</v>
@@ -3051,12 +3045,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>134</v>
@@ -3065,7 +3059,7 @@
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>135</v>
@@ -3074,12 +3068,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>136</v>
@@ -3088,44 +3082,44 @@
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>139</v>
@@ -3134,44 +3128,44 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3180,7 +3174,7 @@
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3189,12 +3183,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
@@ -3203,7 +3197,7 @@
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>145</v>
@@ -3212,12 +3206,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3226,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>147</v>
@@ -3235,44 +3229,44 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>153</v>
@@ -3286,7 +3280,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>154</v>
@@ -3295,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>155</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>156</v>
@@ -3318,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>157</v>
@@ -3332,7 +3326,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>158</v>
@@ -3341,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>159</v>
@@ -3355,16 +3349,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>161</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>162</v>
@@ -3387,7 +3381,7 @@
         <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>163</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>164</v>
@@ -3410,7 +3404,7 @@
         <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>165</v>
@@ -3424,7 +3418,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>166</v>
@@ -3433,7 +3427,7 @@
         <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>167</v>
@@ -3447,19 +3441,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3464,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3493,16 +3487,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>153</v>
@@ -3516,7 +3510,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>154</v>
@@ -3525,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>155</v>
@@ -3539,7 +3533,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>156</v>
@@ -3548,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>157</v>
@@ -3562,7 +3556,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>158</v>
@@ -3571,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>159</v>
@@ -3585,16 +3579,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>161</v>
@@ -3608,7 +3602,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>162</v>
@@ -3617,7 +3611,7 @@
         <v>33</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>163</v>
@@ -3631,7 +3625,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>164</v>
@@ -3640,7 +3634,7 @@
         <v>33</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>165</v>
@@ -3654,7 +3648,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>166</v>
@@ -3663,7 +3657,7 @@
         <v>33</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>167</v>
@@ -3677,19 +3671,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3700,7 +3694,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>173</v>
@@ -3709,7 +3703,7 @@
         <v>33</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>174</v>
@@ -3718,29 +3712,6 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -969,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -995,10 +1007,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1012,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1021,7 +1033,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1035,13 +1047,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1061,7 +1073,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1084,7 +1096,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>34</v>
@@ -1176,7 +1188,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1199,7 +1211,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1222,7 +1234,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1245,7 +1257,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>34</v>
@@ -1515,19 +1527,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1550,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1573,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1596,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1619,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1642,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1665,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1688,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1711,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1803,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1826,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1849,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1895,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1918,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1938,10 +1950,10 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,7 +1987,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>108</v>
@@ -1984,10 +1996,10 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,7 +2010,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>109</v>
@@ -2007,10 +2019,10 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,7 +2033,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>110</v>
@@ -2030,10 +2042,10 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2424,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,7 +2585,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>102</v>
@@ -2582,10 +2594,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,7 +2631,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>104</v>
@@ -2628,10 +2640,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2654,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2769,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2792,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2815,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2838,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2930,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,16 +2953,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>118</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,10 +2999,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
@@ -2999,21 +3011,21 @@
         <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
@@ -3022,21 +3034,21 @@
         <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
@@ -3045,21 +3057,21 @@
         <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
@@ -3068,21 +3080,21 @@
         <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
@@ -3091,329 +3103,329 @@
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3436,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3620,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3689,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3700,19 +3712,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3723,24 +3735,162 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>18</v>
       </c>
     </row>
